--- a/RUDN/Importance/Varible_muatal_in_Southern Europe.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Southern Europe.xlsx
@@ -31,12 +31,12 @@
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
@@ -85,21 +85,21 @@
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
     <t>Female population 45-49</t>
   </si>
   <si>
@@ -118,73 +118,79 @@
     <t>Male population 30-34</t>
   </si>
   <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
     <t>Female population 05-09</t>
   </si>
   <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
     <t>Female population 80+</t>
   </si>
   <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
+    <t>Female population 60-64</t>
   </si>
   <si>
     <t>Female population 15-19</t>
   </si>
   <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
     <t>Male population 05-09</t>
   </si>
   <si>
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
     <t>Male population 80+</t>
   </si>
   <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
     <t>Male population 10-14</t>
   </si>
   <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
+    <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
     <t>Male population 35-39</t>
@@ -196,157 +202,154 @@
     <t>Population, total</t>
   </si>
   <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
+    <t>Population, female</t>
+  </si>
+  <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
+    <t>Country_code</t>
+  </si>
+  <si>
     <t>Female population 65-69</t>
   </si>
   <si>
-    <t>Population, female</t>
-  </si>
-  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Country_code</t>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
+    <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
   </si>
   <si>
     <t>Population ages 0-14, female</t>
   </si>
   <si>
-    <t>Labor force, total</t>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
     <t>Male population 70-74</t>
   </si>
   <si>
-    <t>Age population, age 07, female, interpolated</t>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
     <t>Population ages 15-64, female</t>
   </si>
   <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
+    <t>Female population 00-04</t>
   </si>
   <si>
     <t>Population, male</t>
   </si>
   <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>Age population, age 11, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
     <t>Female population 75-79</t>
   </si>
   <si>
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
     <t>Urban population</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+    <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 04, female, interpolated</t>
@@ -355,7 +358,7 @@
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 04, male, interpolated</t>
+    <t>Urban population growth (annual %)</t>
   </si>
   <si>
     <t>Age population, age 13, male, interpolated</t>
@@ -364,9 +367,6 @@
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
@@ -376,15 +376,15 @@
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
@@ -433,42 +433,42 @@
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
   </si>
   <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
     <t>Net ODA provided, total (constant 2015 US$)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
     <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
     <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
@@ -478,18 +478,18 @@
     <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
     <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
@@ -517,6 +517,9 @@
     <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
     <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
   </si>
   <si>
@@ -529,73 +532,73 @@
     <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Children orphaned by HIV/AIDS</t>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
     <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
   </si>
   <si>
     <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
   </si>
   <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
   </si>
   <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
     <t>Net ODA provided to the least developed countries (current US$)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Health expenditure, public (% of total health expenditure)</t>
@@ -607,9 +610,6 @@
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
@@ -619,240 +619,240 @@
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
+    <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
   </si>
   <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
-    <t>Self-employed, female (% of female employment)</t>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+    <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
     <t>Total bilateral ODA commitments (current US$)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
     <t>Employers, female (% of female employment)</t>
   </si>
   <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
     <t>Employers, male (% of male employment)</t>
   </si>
   <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
     <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
@@ -907,6 +907,9 @@
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
@@ -931,109 +934,118 @@
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Births attended by skilled health staff (% of total)</t>
@@ -1042,10 +1054,13 @@
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
     <t>Employment in industry, female (% of female employment)</t>
@@ -1054,163 +1069,154 @@
     <t>Time-related underemployment, female (% of employment)</t>
   </si>
   <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Time-related underemployment, male (% of employment)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
+    <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
     <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+    <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
+    <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
     <t>Expected years of schooling, female</t>
@@ -1219,118 +1225,121 @@
     <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Years</t>
   </si>
   <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
     <t>Net intake rate in grade 1, male (% of official school-age population)</t>
@@ -1339,145 +1348,136 @@
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Urban poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Rural poverty gap at national poverty lines (%)</t>
   </si>
   <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
-    <t>Urban poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
-  </si>
-  <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Literacy rate, youth total (% of people ages 15-24)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
-    <t>Rural poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
+    <t>Educational attainment, completed Master's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Master's or equivalent, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>Educational attainment, completed Master's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Master's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
     <t>School enrollment, primary (% net)</t>
   </si>
   <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+    <t>Age at first marriage, male</t>
   </si>
   <si>
     <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.304820825309875</v>
+        <v>1.305120035903203</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.1508867128465</v>
+        <v>1.149437035753441</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1867,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.098751160119053</v>
+        <v>1.092843080905049</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1875,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.094583042137669</v>
+        <v>1.091987693813011</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1883,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.075643386165198</v>
+        <v>1.076371824393636</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1891,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.027595605495701</v>
+        <v>1.037666304397075</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.019831756252727</v>
+        <v>1.027253556240608</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1907,7 +1907,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.015531979704717</v>
+        <v>1.016531543130808</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9959222828215153</v>
+        <v>0.9928323317248888</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1923,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9700847008801881</v>
+        <v>0.9708841027665467</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1931,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9700847008801881</v>
+        <v>0.9708841027665467</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1939,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9683800690267441</v>
+        <v>0.97005605507773</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1947,7 +1947,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9683800690267441</v>
+        <v>0.97005605507773</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1955,7 +1955,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9531054817119702</v>
+        <v>0.9521085776632541</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1963,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9505175563076316</v>
+        <v>0.9494054410027508</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1971,7 +1971,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9273787636745308</v>
+        <v>0.9290191648393882</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1979,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8660393090999845</v>
+        <v>0.8647247403900962</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1987,7 +1987,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8310002322052292</v>
+        <v>0.8361490693576736</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1995,7 +1995,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7909870626007653</v>
+        <v>0.7933777489380236</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2003,7 +2003,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7900375416190863</v>
+        <v>0.7873106170448039</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2011,7 +2011,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7851585530328751</v>
+        <v>0.7829188148832791</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2019,7 +2019,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7783458486922599</v>
+        <v>0.7815433492834045</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2027,7 +2027,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7749504747449971</v>
+        <v>0.7751539749484975</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2035,7 +2035,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7676984532378293</v>
+        <v>0.7689511496867656</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2043,7 +2043,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.767383049328342</v>
+        <v>0.7682653466618654</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2051,7 +2051,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.767069255892129</v>
+        <v>0.7646748543183675</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2059,7 +2059,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7659526851945064</v>
+        <v>0.7625481756828063</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7588616782739517</v>
+        <v>0.7614628030356942</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2075,7 +2075,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7447231295367001</v>
+        <v>0.7463666599094099</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2083,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7379649412272928</v>
+        <v>0.7370413063570842</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2091,7 +2091,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7358715657208639</v>
+        <v>0.7319158715962399</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2099,7 +2099,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7325331784520484</v>
+        <v>0.7319008706046684</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2107,7 +2107,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7305090996018819</v>
+        <v>0.7314763028719562</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2115,7 +2115,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7170568249724711</v>
+        <v>0.719897645208611</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2123,7 +2123,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7163003793945308</v>
+        <v>0.7187212985771594</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2131,7 +2131,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.714934868256023</v>
+        <v>0.7167127633220951</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7148907740405623</v>
+        <v>0.7161899048039779</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7141517152497165</v>
+        <v>0.7157904800943089</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2155,7 +2155,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.714131192454059</v>
+        <v>0.7140485204963865</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2163,7 +2163,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7071360782843699</v>
+        <v>0.709201569175089</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7070388456579235</v>
+        <v>0.7079156579534365</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7066698060773327</v>
+        <v>0.7060278907661592</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7039249980716931</v>
+        <v>0.7048447549231742</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7037633849601515</v>
+        <v>0.7034292570561169</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.703356551353191</v>
+        <v>0.7031348814886642</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6999878874542427</v>
+        <v>0.7028524127447064</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6992943782076506</v>
+        <v>0.7021621950591279</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6978111843027621</v>
+        <v>0.6985838941847065</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2235,7 +2235,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6939125465016582</v>
+        <v>0.696749109835558</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6937633241952073</v>
+        <v>0.6966269935963574</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.6916779943530966</v>
+        <v>0.69378795205516</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.6883847999270936</v>
+        <v>0.692158080793841</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2267,7 +2267,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6879577206965211</v>
+        <v>0.6890120563684623</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2275,7 +2275,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6869637560755844</v>
+        <v>0.6882755479602447</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2283,7 +2283,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.6862185972188977</v>
+        <v>0.6869036084936786</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2291,7 +2291,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6857498684138887</v>
+        <v>0.6832778803096573</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2299,7 +2299,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6809581620770691</v>
+        <v>0.6825981949671021</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2307,7 +2307,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6796739904827294</v>
+        <v>0.6817578463891945</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2315,7 +2315,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6793818461382477</v>
+        <v>0.6815755086830686</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2323,7 +2323,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6782816271668159</v>
+        <v>0.6806660539747931</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2331,7 +2331,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6778009003719583</v>
+        <v>0.679561362389193</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2339,7 +2339,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.677139399291953</v>
+        <v>0.6795318405138033</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2347,7 +2347,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6605834955258008</v>
+        <v>0.660668834320818</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2355,7 +2355,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6521878856794885</v>
+        <v>0.6571384569588998</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2363,7 +2363,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6520198828817048</v>
+        <v>0.6551795727139611</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2371,7 +2371,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6519177122660098</v>
+        <v>0.6534805413894746</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2379,7 +2379,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6515968644750867</v>
+        <v>0.6529774691065207</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2387,7 +2387,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6511643533878675</v>
+        <v>0.6517018752103172</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2395,7 +2395,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6501700466013309</v>
+        <v>0.649428771511896</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2403,7 +2403,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6483792526052339</v>
+        <v>0.6484126557678991</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2411,7 +2411,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6468700983734821</v>
+        <v>0.6470137189414653</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2419,7 +2419,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6459264336574027</v>
+        <v>0.645798194047241</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2427,7 +2427,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.643541043300726</v>
+        <v>0.6450845573588031</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2435,7 +2435,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6407191727103609</v>
+        <v>0.6442727989890282</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2443,7 +2443,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6402231230919941</v>
+        <v>0.642188347567779</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2451,7 +2451,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6381200628121331</v>
+        <v>0.6414887976665766</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2459,7 +2459,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6378367488328958</v>
+        <v>0.638828812324959</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2467,7 +2467,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6371744378922601</v>
+        <v>0.6385162208354696</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2475,7 +2475,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6357639236477728</v>
+        <v>0.6382501495507449</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2483,7 +2483,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6356447683712365</v>
+        <v>0.6370474523397061</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2491,7 +2491,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.6354389186202676</v>
+        <v>0.6368042239271872</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2499,7 +2499,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.635355805649235</v>
+        <v>0.6365034551227087</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2507,7 +2507,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6352982450711235</v>
+        <v>0.6356424188237675</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2515,7 +2515,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6345469401023447</v>
+        <v>0.6351872410272437</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2523,7 +2523,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6325333731118232</v>
+        <v>0.6342280980792023</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2531,7 +2531,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.6325313082521595</v>
+        <v>0.6332884409039106</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2539,7 +2539,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6323181245954852</v>
+        <v>0.631902465381045</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2547,7 +2547,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6311349356259659</v>
+        <v>0.6302981929604115</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2555,7 +2555,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.6289002581889038</v>
+        <v>0.6280938152518116</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2563,7 +2563,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6271017517597479</v>
+        <v>0.6264261153171811</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2571,7 +2571,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6246640421340497</v>
+        <v>0.6229087562152293</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2579,7 +2579,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6228138177115565</v>
+        <v>0.6194632624583618</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2587,7 +2587,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.622400624743082</v>
+        <v>0.6190780731489882</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2595,7 +2595,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6190153963027774</v>
+        <v>0.6184232533153136</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2603,7 +2603,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6113733038139619</v>
+        <v>0.6167891118987008</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2611,7 +2611,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.6109762700195649</v>
+        <v>0.6124861991183219</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2619,7 +2619,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6100731782280064</v>
+        <v>0.6123835055200471</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2627,7 +2627,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6091942162898381</v>
+        <v>0.6107345538893822</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2635,7 +2635,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6066667290811263</v>
+        <v>0.6105354600452291</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2643,7 +2643,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6064626745360142</v>
+        <v>0.6101890636402523</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2651,7 +2651,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6042932606452158</v>
+        <v>0.6086634993812776</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2659,7 +2659,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.604199213666992</v>
+        <v>0.6076174002166543</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2667,7 +2667,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6033078947923758</v>
+        <v>0.6064860822182894</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2675,7 +2675,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.603034410625805</v>
+        <v>0.6063221565237424</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2683,7 +2683,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.6022643302118382</v>
+        <v>0.6027955188050749</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2691,7 +2691,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.5999079155631502</v>
+        <v>0.6000993664124961</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2699,7 +2699,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.5932580942711048</v>
+        <v>0.5939030708183983</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2707,7 +2707,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.5931590231993507</v>
+        <v>0.5935692924472371</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2715,7 +2715,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.5928252448281894</v>
+        <v>0.5931258191388298</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2723,7 +2723,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.5900522749965251</v>
+        <v>0.5880989507615528</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2731,7 +2731,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.5860415828612238</v>
+        <v>0.5866726177382606</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2739,7 +2739,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.5855721445942415</v>
+        <v>0.5853634508387051</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2747,7 +2747,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.5830831731840047</v>
+        <v>0.5833704301039928</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2755,7 +2755,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.5810128056612358</v>
+        <v>0.5807300650093241</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2763,7 +2763,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.5807640578372228</v>
+        <v>0.5764283039702436</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2771,7 +2771,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.5787298988743728</v>
+        <v>0.576064316093551</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2779,7 +2779,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.5763241120958655</v>
+        <v>0.5754618487589656</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2787,7 +2787,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.5714831126566198</v>
+        <v>0.5744149245350036</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2795,7 +2795,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.5700380758896793</v>
+        <v>0.5704481233585503</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2803,7 +2803,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.5657072265587768</v>
+        <v>0.5668646339661843</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2811,7 +2811,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.5643998981570992</v>
+        <v>0.5622660826235895</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2819,7 +2819,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.5602492696708521</v>
+        <v>0.5622475689905797</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2827,7 +2827,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.5583053009938785</v>
+        <v>0.5589261351190857</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2835,7 +2835,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5581447759819249</v>
+        <v>0.5588061516433009</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2843,7 +2843,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.5498021426414315</v>
+        <v>0.5490462847427164</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2851,7 +2851,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.5423247746687738</v>
+        <v>0.5442446384307424</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2859,7 +2859,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.5390506684813836</v>
+        <v>0.5396836994715577</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2867,7 +2867,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.5366786422742282</v>
+        <v>0.539045928740149</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2875,7 +2875,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.536332666423549</v>
+        <v>0.5361901094007404</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2883,7 +2883,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.5285522322176153</v>
+        <v>0.5275601687255518</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2891,7 +2891,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.5081809011797578</v>
+        <v>0.5074368535607101</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2899,7 +2899,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.4963325797154914</v>
+        <v>0.5026765252642633</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2907,7 +2907,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.4737744209908397</v>
+        <v>0.4739237426936032</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2915,7 +2915,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.4705673585925041</v>
+        <v>0.4723129543825211</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2923,7 +2923,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.4400137313392682</v>
+        <v>0.4410057948313315</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2931,7 +2931,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.4290960592324298</v>
+        <v>0.4297191367258646</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2939,7 +2939,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.4270794562620224</v>
+        <v>0.4271889824355513</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2947,7 +2947,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.4171379829809996</v>
+        <v>0.4170492116543527</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2955,7 +2955,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.4139911125227251</v>
+        <v>0.4092997591864409</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2963,7 +2963,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.4109918236960397</v>
+        <v>0.4075914650805719</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2971,7 +2971,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.4088140193196583</v>
+        <v>0.4011729501853667</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2979,7 +2979,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.4005134818771698</v>
+        <v>0.3928596267240279</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2987,7 +2987,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.3882327983342919</v>
+        <v>0.3872690795134304</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2995,7 +2995,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.3874003377461077</v>
+        <v>0.386498799259938</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3003,7 +3003,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.3868671090691165</v>
+        <v>0.3859033902482549</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3011,7 +3011,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.3858738622598037</v>
+        <v>0.3849101434389421</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3019,7 +3019,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.3842586047360821</v>
+        <v>0.3836446051713578</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3027,7 +3027,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.3842586047360821</v>
+        <v>0.3832948859152205</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3035,7 +3035,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.3842586047360821</v>
+        <v>0.3832948859152205</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3043,7 +3043,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.3842586047360821</v>
+        <v>0.3832948859152205</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3051,7 +3051,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.3838202278313667</v>
+        <v>0.3832948859152205</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3059,7 +3059,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.3724716408635997</v>
+        <v>0.3733219809996542</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3067,7 +3067,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.3705688919896428</v>
+        <v>0.3674314427986274</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3075,7 +3075,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.3675518346989382</v>
+        <v>0.363869552069287</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3083,7 +3083,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.36049883003232</v>
+        <v>0.3614239744236403</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3091,7 +3091,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.3591452759932019</v>
+        <v>0.3608724662661504</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3099,7 +3099,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.3522566711880037</v>
+        <v>0.3512646076959405</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3107,7 +3107,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.3507195606737983</v>
+        <v>0.3469272108423724</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3115,7 +3115,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.3458092964203239</v>
+        <v>0.3437736570108489</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3123,7 +3123,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.3397939743381713</v>
+        <v>0.3417214119798941</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3131,7 +3131,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.3362831707642804</v>
+        <v>0.335092694573804</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3139,7 +3139,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.3095758327381339</v>
+        <v>0.3154429872363655</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3147,7 +3147,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.3086323871108088</v>
+        <v>0.3078883394917611</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3155,7 +3155,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.3063100635480978</v>
+        <v>0.3055660159290501</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3163,7 +3163,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.2872533084522413</v>
+        <v>0.2895350544839876</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3179,7 +3179,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.2802154121284519</v>
+        <v>0.2777352533982933</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3187,7 +3187,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.2791013677780736</v>
+        <v>0.2768787601653835</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3195,7 +3195,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.2786347613812916</v>
+        <v>0.2767187890635276</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3203,7 +3203,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.2767472207462289</v>
+        <v>0.2763599181998919</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3211,7 +3211,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.2757263395045106</v>
+        <v>0.2742670620160701</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3219,7 +3219,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.2719542369372889</v>
+        <v>0.273246180774352</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3227,7 +3227,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.26961504323463</v>
+        <v>0.2701198455425882</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3235,7 +3235,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.2688958187791746</v>
+        <v>0.267906332075402</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3243,7 +3243,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.2686604224457059</v>
+        <v>0.2670197372857412</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3251,7 +3251,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.2664492106219531</v>
+        <v>0.2661802637155475</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3259,7 +3259,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.2658292610952651</v>
+        <v>0.2656213737320559</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3267,7 +3267,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.2615449073176299</v>
+        <v>0.2652155422382649</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3275,7 +3275,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.2608770695536542</v>
+        <v>0.264547704474289</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3283,7 +3283,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.257746835599769</v>
+        <v>0.2603195383994874</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3291,7 +3291,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.2554758826221615</v>
+        <v>0.2568269221798554</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3299,7 +3299,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.2553557744224819</v>
+        <v>0.2554758826221615</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3315,7 +3315,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.2539092819892308</v>
+        <v>0.2553557744224819</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3323,7 +3323,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.2530207987859143</v>
+        <v>0.2539765961031135</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3331,7 +3331,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.2511913740727296</v>
+        <v>0.2533739137552691</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3339,7 +3339,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.2503059611824787</v>
+        <v>0.2529029497899722</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3347,7 +3347,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.249860196348356</v>
+        <v>0.2510366718017873</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3355,7 +3355,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.249860196348356</v>
+        <v>0.250807809979126</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3363,7 +3363,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.2471371750584912</v>
+        <v>0.249860196348356</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3371,7 +3371,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.2445085663955888</v>
+        <v>0.249860196348356</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3379,7 +3379,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.2438533350271088</v>
+        <v>0.2458374620112358</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3387,7 +3387,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.2420969842010241</v>
+        <v>0.2421637562275665</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3395,7 +3395,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.2415530574025819</v>
+        <v>0.2415584354481897</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3403,7 +3403,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.2385155185936294</v>
+        <v>0.2401212301951465</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3411,7 +3411,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.2372203864372397</v>
+        <v>0.2391262174186142</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3419,7 +3419,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.2368699523960971</v>
+        <v>0.2372203864372397</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3427,7 +3427,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.2348786636849738</v>
+        <v>0.2343367286130651</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3435,7 +3435,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.2326441241813386</v>
+        <v>0.2317402475345081</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3443,7 +3443,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.2303850925957787</v>
+        <v>0.2286715283822143</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3451,7 +3451,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.2235855901606567</v>
+        <v>0.224817749691135</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3459,7 +3459,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.2221159185139931</v>
+        <v>0.22290442002074</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3467,7 +3467,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.2218086345576336</v>
+        <v>0.2222193193538289</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3475,7 +3475,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.2205147990212979</v>
+        <v>0.2221159185139931</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3491,7 +3491,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.2193738411225139</v>
+        <v>0.2195794248716381</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3499,7 +3499,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.2163979864995307</v>
+        <v>0.2188317130358275</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3507,7 +3507,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.2163515543056689</v>
+        <v>0.2186828546221762</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3515,7 +3515,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.2159741041757592</v>
+        <v>0.2179959092432739</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3523,7 +3523,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.2147676678791188</v>
+        <v>0.216908904447499</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3531,7 +3531,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.2147052001365817</v>
+        <v>0.2163979864995307</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3539,7 +3539,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.21346984337103</v>
+        <v>0.2162976058682624</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3547,7 +3547,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.213307339991972</v>
+        <v>0.2147052001365817</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3555,7 +3555,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.2131690557948598</v>
+        <v>0.2146380449293659</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3563,7 +3563,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.2128062054175981</v>
+        <v>0.213307339991972</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3571,7 +3571,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.2109837068043634</v>
+        <v>0.2128062054175981</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3579,7 +3579,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.2104900535268766</v>
+        <v>0.212415263249661</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3587,7 +3587,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.2094032201025742</v>
+        <v>0.2107044455143703</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3603,7 +3603,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.2075537894821411</v>
+        <v>0.2094032201025742</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3611,7 +3611,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.2072565330909306</v>
+        <v>0.2087442656726173</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3619,7 +3619,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.2069973922399611</v>
+        <v>0.2081091011459242</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3627,7 +3627,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.206060327717376</v>
+        <v>0.2078447499191922</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3635,7 +3635,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.2044960747937172</v>
+        <v>0.207351394752237</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3643,7 +3643,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.2044640426444655</v>
+        <v>0.2057525511483231</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3651,7 +3651,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.2043187554440598</v>
+        <v>0.2057296398866879</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3659,7 +3659,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.2030450585662744</v>
+        <v>0.2056383273743962</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3667,7 +3667,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.2012444679064882</v>
+        <v>0.2043187554440598</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3675,7 +3675,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.2004718927673095</v>
+        <v>0.2035323559728557</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3683,7 +3683,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.1994482781465214</v>
+        <v>0.1986871785492976</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3691,7 +3691,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.1992742047912517</v>
+        <v>0.197138763932827</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3699,7 +3699,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.1986871785492976</v>
+        <v>0.1970537830991996</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3707,7 +3707,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.1974290380789696</v>
+        <v>0.1962742660770276</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3715,7 +3715,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1974079505574005</v>
+        <v>0.1959217656346754</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3723,7 +3723,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.197138763932827</v>
+        <v>0.195894057619483</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3731,7 +3731,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.1965459013166735</v>
+        <v>0.1957881187001391</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3739,7 +3739,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.1964694763014334</v>
+        <v>0.1956943863438361</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3747,7 +3747,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.196442698793124</v>
+        <v>0.1942320975031904</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3755,7 +3755,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.1939191079097398</v>
+        <v>0.1940941091330808</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3771,7 +3771,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.1929327704146466</v>
+        <v>0.1931527024574777</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3779,7 +3779,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.1918498131565951</v>
+        <v>0.1925228331727649</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3787,7 +3787,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.1914580547113118</v>
+        <v>0.191696856201633</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3795,7 +3795,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.1913883995369399</v>
+        <v>0.1914552802217968</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3803,7 +3803,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.1913240056135694</v>
+        <v>0.1914552802217968</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3811,7 +3811,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.1913222619708015</v>
+        <v>0.1903602867927077</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3819,7 +3819,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.1913166046249859</v>
+        <v>0.1890175411303689</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3827,7 +3827,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.1907205074139375</v>
+        <v>0.1888364458948273</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3835,7 +3835,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.1890175411303689</v>
+        <v>0.1874444209926032</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3843,7 +3843,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.1863318014278774</v>
+        <v>0.1871254522215282</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3851,7 +3851,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.1860955038264873</v>
+        <v>0.1852876438859741</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3859,7 +3859,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.1837456899219101</v>
+        <v>0.1843262356352164</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3875,7 +3875,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.1828837929641478</v>
+        <v>0.1828219773910544</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3883,7 +3883,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.1827469077000137</v>
+        <v>0.1828124672549138</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3891,7 +3891,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.182665981839164</v>
+        <v>0.1824184332643968</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3899,7 +3899,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.1810920350534952</v>
+        <v>0.1814212167483906</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3907,7 +3907,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.1810358917198724</v>
+        <v>0.1797153796417377</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3915,7 +3915,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.1801122050385631</v>
+        <v>0.1796019230890615</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3923,7 +3923,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.1798097903168776</v>
+        <v>0.1786685656657403</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3931,7 +3931,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.1797205360379825</v>
+        <v>0.1772217962307225</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3939,7 +3939,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.1796019230890615</v>
+        <v>0.1761391553962428</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3947,7 +3947,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.176421591528696</v>
+        <v>0.1749186548540111</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3955,7 +3955,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.1756688200024372</v>
+        <v>0.173257028700404</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3963,7 +3963,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.1732700164935752</v>
+        <v>0.172390680918838</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3971,7 +3971,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.1716283109386674</v>
+        <v>0.1718811276046863</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3979,7 +3979,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.1712782638032209</v>
+        <v>0.1716321478623166</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3987,7 +3987,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.1702612312042526</v>
+        <v>0.1702087526108118</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3995,7 +3995,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.1693793607041545</v>
+        <v>0.1701586498270027</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4003,7 +4003,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.1689931034040908</v>
+        <v>0.1685476669906882</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4011,7 +4011,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.1686917426396966</v>
+        <v>0.1677051263628671</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4019,7 +4019,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.166382557143721</v>
+        <v>0.1672746355463506</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4027,7 +4027,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.1660335057269466</v>
+        <v>0.1667867076659737</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4035,7 +4035,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.1654582746415527</v>
+        <v>0.1667759666167778</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4043,7 +4043,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.1649652507827968</v>
+        <v>0.166382557143721</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4051,7 +4051,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.1644895910883961</v>
+        <v>0.1652619007886753</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4059,7 +4059,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.1627577284023243</v>
+        <v>0.1637173639707294</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4067,7 +4067,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.1626089042696939</v>
+        <v>0.1628619875157571</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4075,7 +4075,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.1620332334299481</v>
+        <v>0.1627577284023243</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4091,7 +4091,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.1612406504816257</v>
+        <v>0.160291103996365</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4139,7 +4139,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.1552412930893086</v>
+        <v>0.1548444676924832</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4203,7 +4203,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.1512949226193254</v>
+        <v>0.1516079122127763</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4227,7 +4227,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.1503133060935704</v>
+        <v>0.1506104954281977</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4235,7 +4235,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.1500121424810261</v>
+        <v>0.1503133060935704</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4243,7 +4243,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.1497147124701026</v>
+        <v>0.1500121424810261</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4251,7 +4251,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.1491793104038635</v>
+        <v>0.1497147124701026</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4259,7 +4259,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1491569281330327</v>
+        <v>0.1491793104038635</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4267,7 +4267,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.1489935433862806</v>
+        <v>0.1491569281330327</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4275,7 +4275,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.1487821387868768</v>
+        <v>0.1489935433862806</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4283,7 +4283,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.1484488957942947</v>
+        <v>0.1487821387868768</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4291,7 +4291,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.1484393398497732</v>
+        <v>0.1484488957942947</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4307,7 +4307,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.1479142261757134</v>
+        <v>0.1476161904064524</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4315,7 +4315,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1476161904064524</v>
+        <v>0.1474637480538001</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4323,7 +4323,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1474637480538001</v>
+        <v>0.1471268953968901</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4331,7 +4331,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1471268953968901</v>
+        <v>0.1470981921169563</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4339,7 +4339,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1470981921169563</v>
+        <v>0.1470684362848595</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4347,7 +4347,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1470684362848595</v>
+        <v>0.1469201010672259</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4355,7 +4355,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.1469201010672259</v>
+        <v>0.1459220655038722</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4379,7 +4379,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1451906785797743</v>
+        <v>0.1446014551417134</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4387,7 +4387,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.1447673201786595</v>
+        <v>0.1444132095079318</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4395,7 +4395,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.1446014551417134</v>
+        <v>0.144319900943864</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4403,7 +4403,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1444132095079318</v>
+        <v>0.1440182016091205</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4411,7 +4411,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.144319900943864</v>
+        <v>0.143249919480595</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4427,7 +4427,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.143249919480595</v>
+        <v>0.1423063542371799</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4435,7 +4435,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1426821392582758</v>
+        <v>0.1422522294422879</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4443,7 +4443,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.1423063542371799</v>
+        <v>0.1422227215171268</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4451,7 +4451,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1410356863567719</v>
+        <v>0.1418764189992348</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4459,7 +4459,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.1406604818350059</v>
+        <v>0.1371229830893195</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4467,7 +4467,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1404900168309355</v>
+        <v>0.1359791992726898</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4475,7 +4475,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1376927634862541</v>
+        <v>0.1352211400976435</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4483,7 +4483,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1372070149198823</v>
+        <v>0.1339708974102254</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4491,7 +4491,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.1339708974102254</v>
+        <v>0.133917061146513</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4499,7 +4499,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.133668837477217</v>
+        <v>0.1324682081688699</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4507,7 +4507,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.1328834315099352</v>
+        <v>0.1320097890654774</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4515,7 +4515,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.1318161981372328</v>
+        <v>0.1318041723451837</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4523,7 +4523,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.1309404562649443</v>
+        <v>0.1312006695531127</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4531,7 +4531,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.1296720804777689</v>
+        <v>0.1301810579595066</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4539,7 +4539,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.1294664637574754</v>
+        <v>0.1300198676268294</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4547,7 +4547,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.128900781130233</v>
+        <v>0.1296120854950338</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4555,7 +4555,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.128393466733945</v>
+        <v>0.1284595619141851</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4563,7 +4563,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.1274316822694634</v>
+        <v>0.1276586373673529</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4571,7 +4571,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.1257488679907881</v>
+        <v>0.1274580925842852</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4579,7 +4579,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.1239074930679367</v>
+        <v>0.1267915447396573</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4587,7 +4587,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.1236976571522803</v>
+        <v>0.1266360014113823</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4595,7 +4595,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.1232507914658574</v>
+        <v>0.1259286361079877</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4603,7 +4603,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.122043265117491</v>
+        <v>0.1243599791018997</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4611,7 +4611,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.1217644297519098</v>
+        <v>0.1239074930679367</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4619,7 +4619,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.1214776456757583</v>
+        <v>0.1237797463440333</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4627,7 +4627,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.1213221023474835</v>
+        <v>0.1200686978441885</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4635,7 +4635,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1211582862219129</v>
+        <v>0.1190752411593472</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4643,7 +4643,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.1194956506730946</v>
+        <v>0.119069651429591</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4651,7 +4651,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.1192423358232766</v>
+        <v>0.1187902029339127</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4659,7 +4659,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.1180239546286612</v>
+        <v>0.1178593694413075</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4667,7 +4667,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1175463798478567</v>
+        <v>0.1177169593935561</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4675,7 +4675,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.1167793393436267</v>
+        <v>0.1175279228826296</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4683,7 +4683,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1160369304907176</v>
+        <v>0.1167325071386114</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4691,7 +4691,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1158828937889977</v>
+        <v>0.1165214238550978</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4699,7 +4699,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.1140681297385231</v>
+        <v>0.1163499200841684</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4707,7 +4707,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.1139758432048041</v>
+        <v>0.1124028146679188</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4715,7 +4715,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.1135461083515181</v>
+        <v>0.1123318522750991</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4723,7 +4723,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.112089825074468</v>
+        <v>0.110186356206539</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4731,7 +4731,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.1098733666130882</v>
+        <v>0.1099171745638841</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4739,7 +4739,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.109812783368425</v>
+        <v>0.1081571058868653</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4747,7 +4747,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.1098010968165706</v>
+        <v>0.1074669559460131</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4755,7 +4755,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.1090579557288949</v>
+        <v>0.1074669559460131</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4763,7 +4763,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.108015332867105</v>
+        <v>0.1071812662928067</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4771,7 +4771,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.1073277793846177</v>
+        <v>0.1071812662928067</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4779,7 +4779,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.1068682766993558</v>
+        <v>0.1058882561898387</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4787,7 +4787,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.1068682766993558</v>
+        <v>0.1053870179328944</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4795,7 +4795,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.1058882561898387</v>
+        <v>0.1051647025914173</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4803,7 +4803,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.1053687443522362</v>
+        <v>0.1048782998625133</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4811,7 +4811,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.1052238596844814</v>
+        <v>0.1043032950774681</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4819,7 +4819,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.10511798977316</v>
+        <v>0.1037053681404747</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4827,7 +4827,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.1048971470966609</v>
+        <v>0.1034850787690347</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4835,7 +4835,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.1048517129979665</v>
+        <v>0.1031549065600765</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4843,7 +4843,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.1022790124614363</v>
+        <v>0.1027326903650962</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4851,7 +4851,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.1020163983427631</v>
+        <v>0.1027268630210472</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4859,7 +4859,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.1016917367823884</v>
+        <v>0.1027189503973909</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4867,7 +4867,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.1012445951270011</v>
+        <v>0.1023941601476319</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4875,7 +4875,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.1007552589121568</v>
+        <v>0.1019823396540414</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4883,7 +4883,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.100005475162807</v>
+        <v>0.1012687261886085</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4891,7 +4891,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.09978958515089897</v>
+        <v>0.1000533151296799</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4899,7 +4899,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.09939105469685416</v>
+        <v>0.0999626635907489</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4907,7 +4907,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.09907111041350469</v>
+        <v>0.09937151370833308</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4915,7 +4915,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.09796405817120579</v>
+        <v>0.09893399458091934</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4923,7 +4923,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.09766263879145254</v>
+        <v>0.09831835099705777</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4931,7 +4931,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.09736844550238222</v>
+        <v>0.09826167721882473</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4939,7 +4939,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.0970025793000282</v>
+        <v>0.0982063638285906</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4947,7 +4947,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.09672438846995934</v>
+        <v>0.09733108611122732</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4955,7 +4955,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.09625880555368771</v>
+        <v>0.0972766364461215</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4963,7 +4963,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.09405247798118488</v>
+        <v>0.09661054747378839</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4971,7 +4971,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.09335070908095999</v>
+        <v>0.09471228226966755</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4979,7 +4979,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.09320951323965443</v>
+        <v>0.09326979836511717</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4987,7 +4987,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.0929831563463972</v>
+        <v>0.09292755484999504</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4995,7 +4995,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.09238535810593973</v>
+        <v>0.09202619918673483</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5003,7 +5003,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.09143096109149651</v>
+        <v>0.09024412543575844</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5011,7 +5011,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.08915771358015379</v>
+        <v>0.08936332253189616</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5019,7 +5019,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.08914881471976499</v>
+        <v>0.0888047169926327</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5027,7 +5027,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.08876808443665785</v>
+        <v>0.08751240623842982</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5035,7 +5035,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.08602431100033447</v>
+        <v>0.08705824655776828</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5043,7 +5043,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.0844778720136774</v>
+        <v>0.08457228396163496</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5051,7 +5051,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.08237691202921171</v>
+        <v>0.08451201548960507</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5059,7 +5059,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.08187116563551755</v>
+        <v>0.08238730385168069</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5067,7 +5067,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.08164817715163863</v>
+        <v>0.08196024536254454</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5075,7 +5075,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.08081895715324205</v>
+        <v>0.07748667697216494</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5083,7 +5083,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.08081895715324205</v>
+        <v>0.07748667697216494</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5091,7 +5091,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.07897834295657469</v>
+        <v>0.07630936084497697</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5099,7 +5099,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.0787895195751358</v>
+        <v>0.07575219851505466</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5107,7 +5107,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.0779834164529869</v>
+        <v>0.07575219851505466</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5115,7 +5115,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.07735734240224579</v>
+        <v>0.07524074797791314</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5123,7 +5123,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.0768187636410671</v>
+        <v>0.07508537845136742</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5131,7 +5131,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.07661320835045049</v>
+        <v>0.07465568675971102</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5139,7 +5139,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.07660378301437065</v>
+        <v>0.07394886259710942</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5147,7 +5147,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.0763250478728561</v>
+        <v>0.07250314697136506</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5155,7 +5155,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.07438453255501698</v>
+        <v>0.07192682715030174</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5163,7 +5163,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.06904456514772517</v>
+        <v>0.06994861575086375</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5171,7 +5171,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.06883934750051068</v>
+        <v>0.06683390828825586</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5179,7 +5179,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.0686241780918142</v>
+        <v>0.06638502272475755</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5187,7 +5187,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.06789611064789969</v>
+        <v>0.06588306564201352</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5195,7 +5195,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.06325287427765658</v>
+        <v>0.06420462434086693</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5203,7 +5203,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.06292586972434711</v>
+        <v>0.06394014070804954</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5211,7 +5211,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.06152466824281344</v>
+        <v>0.06341392934580914</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5219,7 +5219,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.06121196610487489</v>
+        <v>0.06143695486151057</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5227,7 +5227,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.06094889524004854</v>
+        <v>0.06120174930411615</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5235,7 +5235,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.06058262534640013</v>
+        <v>0.0607755550058251</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5243,7 +5243,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.06028749538436307</v>
+        <v>0.06059702383403209</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5251,7 +5251,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.05775894829433992</v>
+        <v>0.06014764366141834</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5259,7 +5259,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.05691737015437837</v>
+        <v>0.05851709658454207</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5267,7 +5267,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.05569415481861295</v>
+        <v>0.0551745735339555</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5275,7 +5275,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.05507580292909164</v>
+        <v>0.0551745735339555</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5283,7 +5283,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.05482326750859023</v>
+        <v>0.0551745735339555</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5291,7 +5291,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.05455585858060163</v>
+        <v>0.05474717936325257</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5299,7 +5299,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.05245325656316302</v>
+        <v>0.05474717936325257</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5307,7 +5307,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.05149491985430177</v>
+        <v>0.05462962982315211</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5315,7 +5315,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.05149491985430177</v>
+        <v>0.05452950372869569</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5323,7 +5323,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.05149491985430177</v>
+        <v>0.05352697018853014</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5331,7 +5331,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.05145072302299747</v>
+        <v>0.05338577764061303</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5339,7 +5339,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.04893915782739877</v>
+        <v>0.05131705043107915</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5347,7 +5347,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.0486148496226535</v>
+        <v>0.05067526893850993</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5355,7 +5355,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.04852144688337279</v>
+        <v>0.05025755799448395</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5363,7 +5363,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.04807725715987732</v>
+        <v>0.04884904169623772</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5371,7 +5371,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.04796280279299081</v>
+        <v>0.0484404957792397</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5379,7 +5379,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.04765534809144412</v>
+        <v>0.04745665841327784</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5387,7 +5387,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.04753851261441366</v>
+        <v>0.04745665841327784</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5395,7 +5395,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.04669771550211821</v>
+        <v>0.04558185041203866</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5403,7 +5403,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.04633939429442546</v>
+        <v>0.04522199856044407</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5411,7 +5411,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.04620478976040765</v>
+        <v>0.04522199856044407</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5419,7 +5419,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.0457991422490347</v>
+        <v>0.04522199856044407</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5427,7 +5427,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.04568780376796178</v>
+        <v>0.04522199856044407</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5435,7 +5435,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.04457051072790175</v>
+        <v>0.04522199856044407</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5443,7 +5443,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.04335948371076492</v>
+        <v>0.04515756023346129</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5451,7 +5451,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.04316009227680651</v>
+        <v>0.04395844191347309</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5459,7 +5459,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.04303939517716016</v>
+        <v>0.04340911534217118</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5467,7 +5467,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.04234828020055392</v>
+        <v>0.0416040962275126</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5475,7 +5475,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.0422416565698811</v>
+        <v>0.0416040962275126</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5483,7 +5483,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.04207895460932587</v>
+        <v>0.04158631882803276</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5491,7 +5491,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.04199878035262072</v>
+        <v>0.04146562172838641</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5499,7 +5499,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.0417207990600752</v>
+        <v>0.04039226483875935</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5507,7 +5507,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.04127779565745415</v>
+        <v>0.04039226483875935</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5515,7 +5515,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.04034423725045277</v>
+        <v>0.04039226483875935</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5523,7 +5523,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.04023572311150847</v>
+        <v>0.04039226483875935</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5531,7 +5531,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.03940962740611997</v>
+        <v>0.04039226483875935</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5539,7 +5539,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.03936904937052965</v>
+        <v>0.04039226483875935</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5547,7 +5547,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.03936371236386993</v>
+        <v>0.04039226483875935</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5555,7 +5555,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.03934939857631714</v>
+        <v>0.04039226483875935</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5563,7 +5563,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.03901270161489068</v>
+        <v>0.03909429653550078</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5571,7 +5571,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.03895118128026054</v>
+        <v>0.03856281661935945</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5579,7 +5579,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.03758913806234854</v>
+        <v>0.03823230973877689</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5587,7 +5587,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.03724052749394846</v>
+        <v>0.0376546359511627</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -5595,7 +5595,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.03711351835875987</v>
+        <v>0.0376546359511627</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5603,7 +5603,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.03618186423840686</v>
+        <v>0.0376546359511627</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -5611,7 +5611,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.03597001593236526</v>
+        <v>0.03743892816611694</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5619,7 +5619,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.03507527087179807</v>
+        <v>0.0373774078314868</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5627,7 +5627,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.03507527087179807</v>
+        <v>0.03643599154636812</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5635,7 +5635,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.03507527087179807</v>
+        <v>0.03594514713264352</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5643,7 +5643,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.03395710366503124</v>
+        <v>0.03546952742905485</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5651,7 +5651,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.02977605931683924</v>
+        <v>0.03210449068938859</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5659,7 +5659,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.0245790527667451</v>
+        <v>0.02773620473147287</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5667,7 +5667,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.0245790527667451</v>
+        <v>0.02418222736991971</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -5675,7 +5675,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.02085909136013919</v>
+        <v>0.02418222736991971</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5683,7 +5683,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.02061249987451497</v>
+        <v>0.02011520654799792</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5691,7 +5691,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.02058313315537053</v>
+        <v>0.02011520654799792</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5699,7 +5699,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.01959492471519297</v>
+        <v>0.01833276023931751</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5707,7 +5707,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.017077185668533</v>
+        <v>0.01550341221975993</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -5715,7 +5715,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.01295818702873808</v>
+        <v>0.01433895588534639</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -5723,7 +5723,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0.01220207355447611</v>
+        <v>0.01433895588534639</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -5731,7 +5731,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.01211673366312427</v>
+        <v>0.011384413579965</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -5739,7 +5739,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.002600131890025503</v>
+        <v>0.003740703797657119</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -5747,7 +5747,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>0.002392865811888578</v>
+        <v>0.003740703797657119</v>
       </c>
     </row>
   </sheetData>
